--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -173,13 +173,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -204,14 +201,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,8 +501,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -515,307 +518,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3">
         <v>43354</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>43355</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>43354</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>43355</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
         <v>43356</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>43360</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>43356</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>43360</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
         <v>43356</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>43360</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>43356</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>43360</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
         <v>43356</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>43360</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>43356</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>43360</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
         <v>43365</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>43368</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="4"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
         <v>43369</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>43375</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
         <v>43376</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>43382</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
         <v>43383</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>43388</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <v>43389</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>43397</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
         <v>43398</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>43404</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="C13" s="9"/>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
         <v>43405</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>43409</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Đề Tài : Game caro hai người chơi ( sử dụng stack để undo)</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t xml:space="preserve">Debug, thử nghiệm </t>
+  </si>
+  <si>
+    <t>Viết báo cáo</t>
+  </si>
+  <si>
+    <t>Thuyết trình</t>
+  </si>
+  <si>
+    <t>file word</t>
+  </si>
+  <si>
+    <t>file power point</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,23 +210,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +520,10 @@
   <sheetPr>
     <tabColor rgb="FF1C1A0E"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -518,54 +539,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -590,8 +611,8 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -614,8 +635,8 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -638,10 +659,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -666,8 +687,8 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -686,10 +707,10 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -710,8 +731,8 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -730,8 +751,8 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
@@ -803,10 +824,10 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
@@ -822,6 +843,58 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12">
+        <v>43406</v>
+      </c>
+      <c r="G14" s="12">
+        <v>43411</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12">
+        <v>43409</v>
+      </c>
+      <c r="G15" s="12">
+        <v>43414</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -185,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,8 +525,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -848,7 +851,7 @@
       <c r="A14" s="8">
         <v>7</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -874,7 +877,7 @@
       <c r="A15" s="8">
         <v>8</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Đề Tài : Game caro hai người chơi ( sử dụng stack để undo)</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>file power point</t>
+  </si>
+  <si>
+    <t>27-Sep  chỉnh sửa</t>
   </si>
 </sst>
 </file>
@@ -225,6 +228,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,9 +242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,8 +528,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -539,18 +542,19 @@
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -559,10 +563,10 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
@@ -586,10 +590,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -611,11 +615,13 @@
       <c r="I3" s="3">
         <v>43355</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -635,11 +641,13 @@
       <c r="I4" s="3">
         <v>43360</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -659,13 +667,15 @@
       <c r="I5" s="3">
         <v>43360</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -687,11 +697,13 @@
       <c r="I6" s="3">
         <v>43360</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -705,15 +717,19 @@
       <c r="G7" s="3">
         <v>43368</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="3">
+        <v>43365</v>
+      </c>
+      <c r="I7" s="3">
+        <v>43367</v>
+      </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -729,13 +745,17 @@
       <c r="G8" s="6">
         <v>43375</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="3">
+        <v>43367</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43370</v>
+      </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -749,13 +769,17 @@
       <c r="G9" s="3">
         <v>43382</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="3">
+        <v>43367</v>
+      </c>
+      <c r="I9" s="3">
+        <v>43370</v>
+      </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
@@ -769,8 +793,12 @@
       <c r="G10" s="3">
         <v>43388</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="3">
+        <v>43368</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43370</v>
+      </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
@@ -827,10 +855,10 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
@@ -851,7 +879,7 @@
       <c r="A14" s="8">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -877,7 +905,7 @@
       <c r="A15" s="8">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
